--- a/data/trans_dic/CoTrAQ_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1712385715972178</v>
+        <v>0.1687403461754569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2722485578354464</v>
+        <v>0.273487658529925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1589338760277008</v>
+        <v>0.1575666760891115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3238948277904976</v>
+        <v>0.3244770831900474</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1821359589413354</v>
+        <v>0.1803830905219912</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3115045755342096</v>
+        <v>0.3140352430076631</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2801437214595838</v>
+        <v>0.2699078048859426</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3895824135165286</v>
+        <v>0.3847206638566995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2795888206137069</v>
+        <v>0.2795592790162307</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4453756117695198</v>
+        <v>0.4402022048499807</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2555796723724392</v>
+        <v>0.2571504532388155</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3950013544650987</v>
+        <v>0.3982792690223313</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1030332303780639</v>
+        <v>0.1016609573524148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2189540104311347</v>
+        <v>0.2216663804885377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1573199166118264</v>
+        <v>0.1560240234538228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2559298804702843</v>
+        <v>0.2552802137431472</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1382207131548205</v>
+        <v>0.1357624705958872</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2479502966514436</v>
+        <v>0.2447560221235799</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1781872841993249</v>
+        <v>0.1774024379652859</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3100627072251623</v>
+        <v>0.3133306913581824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2674749335358431</v>
+        <v>0.2657037682954502</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3660278701676355</v>
+        <v>0.3675586860187018</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1968204960156799</v>
+        <v>0.1982429394493491</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3190975811542884</v>
+        <v>0.3160905498872144</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08311238762348873</v>
+        <v>0.08524840550641165</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1495375186451309</v>
+        <v>0.1507785618264828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09337603571123852</v>
+        <v>0.09815713159496386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1905453665209255</v>
+        <v>0.1893199037050336</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09402466696565753</v>
+        <v>0.09573623629118662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1772028558778527</v>
+        <v>0.1767051824545887</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1444962380646966</v>
+        <v>0.1465582922751784</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2227481640624708</v>
+        <v>0.2240262660973718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1824331569592798</v>
+        <v>0.187013989794777</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2896118556616095</v>
+        <v>0.2893300351984047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1475528946065891</v>
+        <v>0.1486234023707503</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2371773622956425</v>
+        <v>0.235673763310713</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05463618190427134</v>
+        <v>0.05308930845033552</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1700461131636053</v>
+        <v>0.1665165257737827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07999376988118576</v>
+        <v>0.07725655317949252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1462441425572303</v>
+        <v>0.1526014731676152</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0734392934081631</v>
+        <v>0.07239657603527368</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1751276092673344</v>
+        <v>0.1736316303714269</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1219739395553574</v>
+        <v>0.1192420117238734</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2735709896501251</v>
+        <v>0.2703891197713276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1866415055180084</v>
+        <v>0.1895486656471177</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2662252832746052</v>
+        <v>0.273960345812128</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.13409531534986</v>
+        <v>0.1362709779749381</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2535088423130842</v>
+        <v>0.2544092509458413</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1162110731863904</v>
+        <v>0.1160838393591114</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2174292012423319</v>
+        <v>0.2199361790532236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1432873827174502</v>
+        <v>0.1454042490099235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1331749453691798</v>
+        <v>0.1347553669655301</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2439428498337896</v>
+        <v>0.2454221112000954</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1533692428958954</v>
+        <v>0.1548191248237296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2670150240132039</v>
+        <v>0.2667426682929112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1979488521970956</v>
+        <v>0.2008473263726914</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1653316463039468</v>
+        <v>0.1654719451235456</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2791640495709489</v>
+        <v>0.2814513653816558</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46404</v>
+        <v>45727</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>79926</v>
+        <v>80290</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34043</v>
+        <v>33750</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>89794</v>
+        <v>89955</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>88369</v>
+        <v>87519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>177810</v>
+        <v>179254</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75916</v>
+        <v>73142</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>114373</v>
+        <v>112946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59887</v>
+        <v>59880</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>123472</v>
+        <v>122038</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>124003</v>
+        <v>124765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>225470</v>
+        <v>227341</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38352</v>
+        <v>37842</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85496</v>
+        <v>86555</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38096</v>
+        <v>37782</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69115</v>
+        <v>68939</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>84921</v>
+        <v>83411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>163778</v>
+        <v>161668</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66327</v>
+        <v>66035</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>121071</v>
+        <v>122347</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64771</v>
+        <v>64342</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98847</v>
+        <v>99260</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>120925</v>
+        <v>121798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>210773</v>
+        <v>208786</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36558</v>
+        <v>37497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68217</v>
+        <v>68783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24980</v>
+        <v>26259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>55379</v>
+        <v>55023</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66511</v>
+        <v>67722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>132339</v>
+        <v>131968</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63558</v>
+        <v>64465</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>101615</v>
+        <v>102198</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48804</v>
+        <v>50029</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>84171</v>
+        <v>84089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>104375</v>
+        <v>105133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>177130</v>
+        <v>176007</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15765</v>
+        <v>15319</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46788</v>
+        <v>45817</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14073</v>
+        <v>13591</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28381</v>
+        <v>29614</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34111</v>
+        <v>33627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82172</v>
+        <v>81470</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35196</v>
+        <v>34408</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75273</v>
+        <v>74397</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32835</v>
+        <v>33346</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>51664</v>
+        <v>53166</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62284</v>
+        <v>63295</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>118949</v>
+        <v>119372</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>159399</v>
+        <v>159225</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>307747</v>
+        <v>311295</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>128929</v>
+        <v>130833</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>302497</v>
+        <v>306087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>597019</v>
+        <v>600639</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>210367</v>
+        <v>212355</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>377930</v>
+        <v>377545</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>178113</v>
+        <v>180721</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>375539</v>
+        <v>375857</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>683218</v>
+        <v>688816</v>
       </c>
     </row>
     <row r="24">
